--- a/src/test/resources/case/job.xlsx
+++ b/src/test/resources/case/job.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <t>positions</t>
   </si>
   <si>
-    <t>/expected/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>job</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,34 @@
   </si>
   <si>
     <t>/personresume/job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位职责：
+1、负责本公司互联网金融产品的需求分析与产品规划；
+2、负责本公司交易收单、核心清算、运营支撑、账务会计等系统的优化与升级；
+3、负责本公司的软件产品设计、开发和项目管理；
+4、负责与客户和银行沟通、协调。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007-08-31T18:01:56+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-31T18:01:56+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\case\token.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\expected\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -158,10 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,7 +506,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,10 +541,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -529,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -541,10 +568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,8 +579,12 @@
     <col min="1" max="1" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="74.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -582,123 +613,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1">
-        <v>22</v>
+        <v>235</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +651,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,8 +668,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
